--- a/biology/Botanique/Chênes_européens_avec_une_circonférence_du_tronc_supérieure_à_dix_mètres/Chênes_européens_avec_une_circonférence_du_tronc_supérieure_à_dix_mètres.xlsx
+++ b/biology/Botanique/Chênes_européens_avec_une_circonférence_du_tronc_supérieure_à_dix_mètres/Chênes_européens_avec_une_circonférence_du_tronc_supérieure_à_dix_mètres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%AAnes_europ%C3%A9ens_avec_une_circonf%C3%A9rence_du_tronc_sup%C3%A9rieure_%C3%A0_dix_m%C3%A8tres</t>
+          <t>Chênes_européens_avec_une_circonférence_du_tronc_supérieure_à_dix_mètres</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'expression faisant référence aux chênes européens dont la circonférence du tronc dépasse les dix mètres désigne l'ensemble des chênes d'Europe ayant été identifiés dont le diamètre à hauteur de poitrine dépasse les 10 mètres[1]. Le forestier néerlandais Jeroen Pater a, entre 1999 et 2007, recensé tous les chênes correspondant à cette description en prenant la mesure du tronc à 1,3 mètre de hauteur (lorsque le terrain en pente, cette hauteur était mesurée depuis la face supérieure du tronc). Son registre décrit 29 chênes d'Europe avec le lieu, le pays, la portée, l'âge estimé et une description de l'arbre.
-Le Royaume-Uni compte le plus de chênes dont la circonférence dépasse les dix mètres, suivi par l'Allemagne qui en compte cinq puis le Danemark et la Suède avec chacun trois. Le chêne européen au tronc le plus grand, le chêne de Rumskulla, se trouve en Suède. Il mesure 14,75 mètres de circonférence. Certains pays européens n'ont pas chênes atteignant cette taille. Par exemple, le plus gros chêne de Lituanie a une circonférence de 9,35 mètres, en Suisse de 8,90 mètres, en Estonie de 8,25 mètres et aux Pays-Bas et en Autriche de 7,97 et 7,25 mètres respectivement. Le Kongeegen au Danemark serait le chêne le plus âgé en Europe avec un âge estimé à environ 1 400 à 2 000 ans[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'expression faisant référence aux chênes européens dont la circonférence du tronc dépasse les dix mètres désigne l'ensemble des chênes d'Europe ayant été identifiés dont le diamètre à hauteur de poitrine dépasse les 10 mètres. Le forestier néerlandais Jeroen Pater a, entre 1999 et 2007, recensé tous les chênes correspondant à cette description en prenant la mesure du tronc à 1,3 mètre de hauteur (lorsque le terrain en pente, cette hauteur était mesurée depuis la face supérieure du tronc). Son registre décrit 29 chênes d'Europe avec le lieu, le pays, la portée, l'âge estimé et une description de l'arbre.
+Le Royaume-Uni compte le plus de chênes dont la circonférence dépasse les dix mètres, suivi par l'Allemagne qui en compte cinq puis le Danemark et la Suède avec chacun trois. Le chêne européen au tronc le plus grand, le chêne de Rumskulla, se trouve en Suède. Il mesure 14,75 mètres de circonférence. Certains pays européens n'ont pas chênes atteignant cette taille. Par exemple, le plus gros chêne de Lituanie a une circonférence de 9,35 mètres, en Suisse de 8,90 mètres, en Estonie de 8,25 mètres et aux Pays-Bas et en Autriche de 7,97 et 7,25 mètres respectivement. Le Kongeegen au Danemark serait le chêne le plus âgé en Europe avec un âge estimé à environ 1 400 à 2 000 ans,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%AAnes_europ%C3%A9ens_avec_une_circonf%C3%A9rence_du_tronc_sup%C3%A9rieure_%C3%A0_dix_m%C3%A8tres</t>
+          <t>Chênes_européens_avec_une_circonférence_du_tronc_supérieure_à_dix_mètres</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%AAnes_europ%C3%A9ens_avec_une_circonf%C3%A9rence_du_tronc_sup%C3%A9rieure_%C3%A0_dix_m%C3%A8tres</t>
+          <t>Chênes_européens_avec_une_circonférence_du_tronc_supérieure_à_dix_mètres</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -546,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%AAnes_europ%C3%A9ens_avec_une_circonf%C3%A9rence_du_tronc_sup%C3%A9rieure_%C3%A0_dix_m%C3%A8tres</t>
+          <t>Chênes_européens_avec_une_circonférence_du_tronc_supérieure_à_dix_mètres</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -565,6 +581,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -572,7 +590,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%AAnes_europ%C3%A9ens_avec_une_circonf%C3%A9rence_du_tronc_sup%C3%A9rieure_%C3%A0_dix_m%C3%A8tres</t>
+          <t>Chênes_européens_avec_une_circonférence_du_tronc_supérieure_à_dix_mètres</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -590,7 +608,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Liste der Eichen Europas mit einem Stammumfang ab zehn Metern » (voir la liste des auteurs).</t>
         </is>
